--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,75 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1583,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1623,21 +1607,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1647,7 +1639,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1681,19 +1673,19 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1703,7 +1695,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1729,19 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1793,19 +1785,19 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1849,19 +1841,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1871,7 +1863,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1895,29 +1887,21 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1951,12 +1935,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr"/>
@@ -1965,12 +1949,12 @@
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -1980,8 +1964,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1989,55 +1981,39 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2045,23 +2021,31 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="inlineStr"/>
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,21 +2079,29 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2119,7 +2111,7 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2153,24 +2145,24 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2180,72 +2172,64 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2263,21 +2247,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2287,7 +2279,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2321,19 +2313,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2343,7 +2335,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2377,19 +2369,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2433,19 +2425,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2489,19 +2481,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2511,53 +2503,45 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2567,21 +2551,13 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2589,23 +2565,31 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2639,21 +2623,29 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2663,7 +2655,7 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2697,24 +2689,24 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -2724,85 +2716,77 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>phone-numbers</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,12 +2797,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2828,16 +2812,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2845,12 +2821,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2861,17 +2837,17 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2861,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2901,7 +2877,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2916,21 +2892,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2941,7 +2925,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2951,21 +2935,13 @@
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,12 +2965,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3013,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3044,21 +3020,29 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details-inc-non-residential</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3069,7 +3053,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3084,16 +3068,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details-inc-non-residential</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Details of the residential and non-residential parts of the proposed development.</t>
@@ -3101,12 +3077,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>net-dwellings-min</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3117,12 +3093,12 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3141,12 +3117,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-min</t>
+          <t>net-dwellings-max</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Net dwellings maximum</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3157,7 +3133,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3181,28 +3157,36 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-max</t>
+          <t>non-residential-use</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
+          <t>Non-residential use[]</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>non-residential-measurement-type</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Non-residential measurement type</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3231,12 +3215,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>non-residential-measurement-type</t>
+          <t>exact-value</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Non-residential measurement type</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3245,17 +3229,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3263,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>exact-value</t>
+          <t>min</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3293,7 +3277,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3327,12 +3311,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>max</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3341,7 +3325,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3356,31 +3340,39 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>non-residential-use</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3389,12 +3381,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3404,16 +3396,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3431,12 +3415,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3445,12 +3429,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3479,12 +3463,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3493,7 +3477,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3527,12 +3511,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3541,12 +3525,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3575,12 +3559,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3589,7 +3573,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3623,12 +3607,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3637,7 +3621,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3671,12 +3655,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3685,7 +3669,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3719,12 +3703,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3733,12 +3717,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3767,12 +3751,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3781,7 +3765,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3796,31 +3780,39 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>site-info</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Any additional relevant information about the development site.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>value</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3829,31 +3821,23 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>site-info</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Any additional relevant information about the development site.</t>
@@ -3871,12 +3855,12 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -3885,12 +3869,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3919,12 +3903,12 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>provided-by</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr"/>
@@ -3933,17 +3917,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3957,31 +3941,39 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>site-area</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Existing use[]</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>provided-by</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3991,7 +3983,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4025,29 +4017,29 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4071,39 +4063,31 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>floorspace</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>specified-use</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Specified use</t>
-        </is>
-      </c>
+          <t>Floorspace</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4117,36 +4101,28 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>existing-use</t>
+          <t>known-constraints</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>floorspace</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4165,28 +4141,36 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>known-constraints</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4215,12 +4199,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4229,7 +4213,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4263,12 +4247,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>details</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4277,7 +4261,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Additional details or information about an item</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4286,54 +4270,6 @@
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Any additional relevant information about the development site.</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>details</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Additional details or information about an item</t>
-        </is>
-      </c>
-      <c r="M75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -4341,28 +4277,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1519,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1559,21 +1543,29 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,7 +1575,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1617,19 +1609,19 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1639,7 +1631,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1673,19 +1665,19 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1729,19 +1721,19 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1785,19 +1777,19 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1807,7 +1799,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1831,29 +1823,21 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1887,12 +1871,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -1901,12 +1885,12 @@
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -1916,8 +1900,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1925,55 +1917,39 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1981,23 +1957,31 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2031,21 +2015,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2055,7 +2047,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2089,24 +2081,24 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2116,72 +2108,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2199,21 +2183,29 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,7 +2215,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2257,19 +2249,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2279,7 +2271,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2313,19 +2305,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2369,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2425,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2447,53 +2439,45 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2503,21 +2487,13 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2525,23 +2501,31 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2575,21 +2559,29 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2599,7 +2591,7 @@
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2633,24 +2625,24 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2660,85 +2652,77 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>phone-numbers</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,12 +2733,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2764,16 +2748,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2781,12 +2757,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2797,17 +2773,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2797,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2837,7 +2813,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2852,21 +2828,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2877,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2887,21 +2871,13 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,12 +2901,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2949,12 +2925,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2980,21 +2956,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details-inc-non-residential</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3005,7 +2989,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3020,16 +3004,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details-inc-non-residential</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of the residential and non-residential parts of the proposed development.</t>
@@ -3037,12 +3013,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>net-dwellings-min</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3053,12 +3029,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3077,12 +3053,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-min</t>
+          <t>net-dwellings-max</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Net dwellings maximum</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3093,7 +3069,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3117,28 +3093,36 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-max</t>
+          <t>non-residential-use</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+          <t>Non-residential use[]</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>non-residential-measurement-type</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Non-residential measurement type</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3167,12 +3151,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>non-residential-measurement-type</t>
+          <t>exact-value</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Non-residential measurement type</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3181,17 +3165,17 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3215,12 +3199,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>exact-value</t>
+          <t>min</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3229,7 +3213,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3263,12 +3247,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>max</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3277,7 +3261,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3292,31 +3276,39 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>non-residential-use</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3325,12 +3317,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3340,16 +3332,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3367,12 +3351,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3381,12 +3365,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3415,12 +3399,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3429,7 +3413,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3463,12 +3447,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3477,12 +3461,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3511,12 +3495,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3525,7 +3509,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3559,12 +3543,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3573,7 +3557,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3607,12 +3591,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3621,7 +3605,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3655,12 +3639,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3669,12 +3653,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3703,12 +3687,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3717,7 +3701,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3732,31 +3716,39 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>site-info</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Any additional relevant information about the development site.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>value</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3765,31 +3757,23 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>site-info</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Any additional relevant information about the development site.</t>
@@ -3807,12 +3791,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3821,12 +3805,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3855,12 +3839,12 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>provided-by</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -3869,17 +3853,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3893,31 +3877,39 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>site-area</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Existing use[]</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>provided-by</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3927,7 +3919,7 @@
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3961,29 +3953,29 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4007,39 +3999,31 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>floorspace</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>specified-use</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>Specified use</t>
-        </is>
-      </c>
+          <t>Floorspace</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4053,36 +4037,28 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>existing-use</t>
+          <t>known-constraints</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>floorspace</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4101,28 +4077,36 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>known-constraints</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4151,12 +4135,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4165,7 +4149,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4199,12 +4183,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>details</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Details</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4213,7 +4197,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Additional details or information about an item</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4222,54 +4206,6 @@
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Any additional relevant information about the development site.</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>details</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
-      <c r="L74" s="2" t="inlineStr">
-        <is>
-          <t>Additional details or information about an item</t>
-        </is>
-      </c>
-      <c r="M74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N74" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -4277,28 +4213,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A42"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A19:A26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,75 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Application</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1519,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1543,29 +1551,21 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1665,19 +1665,19 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1721,19 +1721,19 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1777,19 +1777,19 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1823,21 +1823,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1871,12 +1879,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
@@ -1885,12 +1893,12 @@
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -1900,16 +1908,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1917,39 +1917,55 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1957,31 +1973,23 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr"/>
       <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,29 +2023,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,64 +2108,72 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2183,29 +2191,21 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2249,19 +2249,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2305,19 +2305,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2361,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2417,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2439,45 +2439,53 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,13 +2495,21 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2501,31 +2517,23 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2559,29 +2567,21 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2625,24 +2625,24 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2652,77 +2652,85 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>phone-numbers</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2733,12 +2741,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2748,8 +2756,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2757,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2773,17 +2789,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2813,7 +2829,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2828,29 +2844,21 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2871,13 +2879,21 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,12 +2917,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2925,12 +2941,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2941,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2956,29 +2972,21 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposed development including any non-residential development</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details-inc-non-residential</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential and non-residential parts of the proposed development.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2989,7 +2997,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Description of proposed development including non-residential development</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3004,8 +3012,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposed development including any non-residential development</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details-inc-non-residential</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of the residential and non-residential parts of the proposed development.</t>
@@ -3013,12 +3029,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-min</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings minimum</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3029,12 +3045,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
+          <t>Description of proposed development including non-residential development</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3053,12 +3069,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>net-dwellings-max</t>
+          <t>net-dwellings-min</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Net dwellings maximum</t>
+          <t>Net dwellings minimum</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3069,7 +3085,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
+          <t>The minimum number of net additional dwellings proposed as part of the development, accounting for any existing dwellings lost and new dwellings created</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3093,36 +3109,28 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>non-residential-use</t>
+          <t>net-dwellings-max</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Non-residential use[]</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>non-residential-measurement-type</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Non-residential measurement type</t>
-        </is>
-      </c>
+          <t>Net dwellings maximum</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Type of measurement being provided (floorspace or site-area)</t>
+          <t>The maximum number of net additional dwellings proposed as part of the development, allowing for flexibility in the final housing numbers</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3151,12 +3159,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>exact-value</t>
+          <t>non-residential-measurement-type</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Exact value</t>
+          <t>Non-residential measurement type</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3165,17 +3173,17 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Exact figure of non-residential use</t>
+          <t>Type of measurement being provided (floorspace or site-area)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3207,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>exact-value</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Minimum value</t>
+          <t>Exact value</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3213,7 +3221,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Lower bound of non-residential use for ranges</t>
+          <t>Exact figure of non-residential use</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3247,12 +3255,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>min</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Maximum value</t>
+          <t>Minimum value</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3261,7 +3269,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Upper bound of non-residential use for ranges</t>
+          <t>Lower bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3276,39 +3284,31 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Details of the residential and non-residential parts of the proposed development.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>non-residential-use</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Non-residential use[]</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>max</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Maximum value</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3317,12 +3317,12 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Upper bound of non-residential use for ranges</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3332,8 +3332,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3351,12 +3359,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3365,12 +3373,12 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3399,12 +3407,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3413,7 +3421,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3447,12 +3455,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3461,12 +3469,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3495,12 +3503,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3509,7 +3517,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3543,12 +3551,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3557,7 +3565,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3591,12 +3599,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3605,7 +3613,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3639,12 +3647,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3653,12 +3661,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3687,12 +3695,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3701,7 +3709,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3716,39 +3724,31 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Site information</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>site-info</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Any additional relevant information about the development site.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>site-area</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Site area</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3757,23 +3757,31 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Numeric value representing a measurement or quantity</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site information</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>site-info</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Any additional relevant information about the development site.</t>
@@ -3791,12 +3799,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>value</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3805,12 +3813,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Unit of measurement for a value</t>
+          <t>Numeric value representing a measurement or quantity</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3839,12 +3847,12 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>provided-by</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -3853,17 +3861,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Whether the information was provided by the applicant or calculated by the system</t>
+          <t>Unit of measurement for a value</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3877,39 +3885,31 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>existing-use</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Existing use[]</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>provided-by</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Uses[]</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Use</t>
-        </is>
-      </c>
+          <t>Provided by</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Whether the information was provided by the applicant or calculated by the system</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3953,29 +3953,29 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>use</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Use</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3999,31 +3999,39 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>floorspace</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Floorspace</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
+          <t>Uses[]</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>specified-use</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>Specified use</t>
+        </is>
+      </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Total floorspace for a use in square metres</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4037,28 +4045,36 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>known-constraints</t>
+          <t>existing-use</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Known constraints[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Existing use[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>floorspace</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Floorspace</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A list of the known constraints affecting the site</t>
+          <t>Total floorspace for a use in square metres</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4077,36 +4093,28 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>known-constraints</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Known constraints[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A list of the known constraints affecting the site</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4135,12 +4143,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4149,7 +4157,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4213,28 +4221,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A64:A73"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
+++ b/generated/spreadsheet/verbose/permission-in-principle-pip-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
